--- a/biology/Médecine/Nooanaleptique/Nooanaleptique.xlsx
+++ b/biology/Médecine/Nooanaleptique/Nooanaleptique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un nooanaleptique est une substance analeptique qui a pour effet de stimuler la vigilance du sujet.
 </t>
@@ -511,7 +523,9 @@
           <t>Eugéroïques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les eugéroïques, ou agents favorisant l'éveil, sont des médicaments destinés a améliorer l'éveil, la vigilance, et à empêcher la somnolence, chez un sujet sain ou atteint d'une maladie chronique (troubles du sommeil notamment).
 Ceux-ci ont généralement un mécanisme d'action et une pharmacologie différente des dérivés amphétaminiques et drogues stimulantes, ce qui fait qu'ils ont des avantages sur les dérivés amphétaminiques, et sont meilleurs pour une utilisation chronique.
@@ -548,7 +562,9 @@
           <t>Stimulants doux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On y compte notamment :
 méthylxanthines telles que la caféine, la théobromine et la théophylline ;
@@ -584,7 +600,9 @@
           <t>Nooanaleptiques puissants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amphétamines (neurotoxiques au long terme).
 Certaines phényléthylamines substituées (ex. : méthylphénidate).
